--- a/slot_prefs.xlsx
+++ b/slot_prefs.xlsx
@@ -15,8 +15,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +48,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,90 +366,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>6</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>4</v>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -432,78 +464,116 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
         <v>6</v>
       </c>
     </row>
